--- a/utilities/RTP/strategy_overrides/Vision_Zero/Capclass_Speed_Capacity.xlsx
+++ b/utilities/RTP/strategy_overrides/Vision_Zero/Capclass_Speed_Capacity.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ywang\Documents\GitHub\travel-model-one\utilities\RTP\strategy_overrides\Vision_Zero\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\travel-model-one-master\utilities\RTP\strategy_overrides\Vision_Zero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107CCE2A-56A2-4259-833B-8E45EFDEE3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F9E305-5ABE-4B8C-9164-B49A413864D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="620" windowWidth="31010" windowHeight="18920" activeTab="3" xr2:uid="{4E95F9D0-AD5A-46FF-95C2-9E879274FEFF}"/>
+    <workbookView xWindow="2250" yWindow="855" windowWidth="30195" windowHeight="19800" activeTab="4" xr2:uid="{4E95F9D0-AD5A-46FF-95C2-9E879274FEFF}"/>
   </bookViews>
   <sheets>
     <sheet name="existing" sheetId="1" r:id="rId1"/>
     <sheet name="critspeed" sheetId="4" r:id="rId2"/>
     <sheet name="incl 280speedup" sheetId="5" r:id="rId3"/>
     <sheet name="BlueprintVisionZero" sheetId="6" r:id="rId4"/>
+    <sheet name="BlueprintVisionZero_lookup" sheetId="8" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">BlueprintVisionZero_lookup!$A$1:$G$184</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="88">
   <si>
     <t>AreaType</t>
   </si>
@@ -287,6 +291,48 @@
   </si>
   <si>
     <t>(start year 2035)</t>
+  </si>
+  <si>
+    <t>area_type</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>spdcap</t>
+  </si>
+  <si>
+    <t>VZ_FFS</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>FT_alias</t>
+  </si>
+  <si>
+    <t>Freeway-to-freeway connector</t>
+  </si>
+  <si>
+    <t>Toll plaza</t>
+  </si>
+  <si>
+    <t>Major arterial</t>
+  </si>
+  <si>
+    <t>Expressway</t>
+  </si>
+  <si>
+    <t>VisionZero_scen</t>
+  </si>
+  <si>
+    <t>BaseLine</t>
+  </si>
+  <si>
+    <t>VisionZero2030</t>
+  </si>
+  <si>
+    <t>VisionZero2035andAfter</t>
   </si>
 </sst>
 </file>
@@ -754,6 +800,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -763,30 +818,11 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3642,71 +3678,71 @@
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.453125" style="1"/>
-    <col min="2" max="2" width="3.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="1"/>
+    <col min="2" max="2" width="3.42578125" style="1" customWidth="1"/>
     <col min="3" max="12" width="8" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.453125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.1796875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="1" customWidth="1"/>
     <col min="15" max="24" width="8" style="1" customWidth="1"/>
-    <col min="25" max="25" width="4.453125" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="14.453125" style="1"/>
+    <col min="25" max="25" width="4.42578125" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="N2" s="80" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="N2" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
       <c r="Y2" s="23"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C3" s="78" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C3" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
       <c r="N3" s="24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
       <c r="C4" s="19" t="s">
         <v>15</v>
       </c>
@@ -3741,11 +3777,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="79" t="s">
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="79"/>
+      <c r="B5" s="88"/>
       <c r="C5" s="3">
         <v>1</v>
       </c>
@@ -3807,7 +3843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -3891,7 +3927,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -3972,7 +4008,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -4053,7 +4089,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -4134,7 +4170,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -4215,7 +4251,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -4296,44 +4332,44 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
-      <c r="N13" s="80" t="s">
+      <c r="N13" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="O13" s="80"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="80"/>
-      <c r="R13" s="80"/>
-      <c r="S13" s="80"/>
-      <c r="T13" s="80"/>
-      <c r="U13" s="80"/>
-      <c r="V13" s="80"/>
-      <c r="W13" s="80"/>
-      <c r="X13" s="80"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C14" s="78" t="s">
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="89"/>
+      <c r="V13" s="89"/>
+      <c r="W13" s="89"/>
+      <c r="X13" s="89"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C14" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
       <c r="N14" s="24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
       <c r="C15" s="19" t="s">
         <v>15</v>
       </c>
@@ -4368,11 +4404,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="79"/>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="88"/>
       <c r="C16" s="3">
         <v>1</v>
       </c>
@@ -4434,7 +4470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
@@ -4491,7 +4527,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -4548,7 +4584,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -4605,7 +4641,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
@@ -4662,7 +4698,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
@@ -4719,7 +4755,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -4776,7 +4812,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="N23" s="3"/>
       <c r="O23" s="31"/>
       <c r="P23" s="31"/>
@@ -4789,44 +4825,44 @@
       <c r="W23" s="31"/>
       <c r="X23" s="31"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
-      <c r="N24" s="80" t="s">
+      <c r="N24" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="O24" s="80"/>
-      <c r="P24" s="80"/>
-      <c r="Q24" s="80"/>
-      <c r="R24" s="80"/>
-      <c r="S24" s="80"/>
-      <c r="T24" s="80"/>
-      <c r="U24" s="80"/>
-      <c r="V24" s="80"/>
-      <c r="W24" s="80"/>
-      <c r="X24" s="80"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C25" s="78" t="s">
+      <c r="O24" s="89"/>
+      <c r="P24" s="89"/>
+      <c r="Q24" s="89"/>
+      <c r="R24" s="89"/>
+      <c r="S24" s="89"/>
+      <c r="T24" s="89"/>
+      <c r="U24" s="89"/>
+      <c r="V24" s="89"/>
+      <c r="W24" s="89"/>
+      <c r="X24" s="89"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C25" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="78"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="87"/>
       <c r="N25" s="24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="19" t="s">
         <v>15</v>
       </c>
@@ -4861,11 +4897,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A27" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="79"/>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A27" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="88"/>
       <c r="C27" s="3">
         <v>1</v>
       </c>
@@ -4927,7 +4963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>1</v>
       </c>
@@ -4982,7 +5018,7 @@
         <v>14.125999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>2</v>
       </c>
@@ -5037,7 +5073,7 @@
         <v>16.48</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
@@ -5092,7 +5128,7 @@
         <v>18.835000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>4</v>
       </c>
@@ -5147,7 +5183,7 @@
         <v>9.4169999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
@@ -5202,7 +5238,7 @@
         <v>11.772</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
@@ -5285,9 +5321,9 @@
       <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -5304,7 +5340,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -5324,7 +5360,7 @@
         <v>18.835000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -5344,7 +5380,7 @@
         <v>25.898</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -5364,7 +5400,7 @@
         <v>11.772</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -5384,7 +5420,7 @@
         <v>4.7089999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -5404,7 +5440,7 @@
         <v>11.772</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -5424,7 +5460,7 @@
         <v>47.087000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -5444,7 +5480,7 @@
         <v>7.0629999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -5464,7 +5500,7 @@
         <v>25.898</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -5484,7 +5520,7 @@
         <v>25.898</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -5504,7 +5540,7 @@
         <v>14.125999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -5524,7 +5560,7 @@
         <v>18.835000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -5544,7 +5580,7 @@
         <v>25.898</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -5564,7 +5600,7 @@
         <v>11.772</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -5584,7 +5620,7 @@
         <v>4.7089999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -5604,7 +5640,7 @@
         <v>11.772</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -5624,7 +5660,7 @@
         <v>47.087000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -5644,7 +5680,7 @@
         <v>9.4169999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -5664,7 +5700,7 @@
         <v>25.898</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -5684,7 +5720,7 @@
         <v>28.251999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -5704,7 +5740,7 @@
         <v>16.48</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -5724,7 +5760,7 @@
         <v>21.189</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -5744,7 +5780,7 @@
         <v>28.251999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -5764,7 +5800,7 @@
         <v>14.125999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -5784,7 +5820,7 @@
         <v>7.0629999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2</v>
       </c>
@@ -5804,7 +5840,7 @@
         <v>14.125999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -5824,7 +5860,7 @@
         <v>47.087000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -5844,7 +5880,7 @@
         <v>11.772</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -5864,7 +5900,7 @@
         <v>28.251999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2</v>
       </c>
@@ -5884,7 +5920,7 @@
         <v>30.606999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -5904,7 +5940,7 @@
         <v>18.835000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>3</v>
       </c>
@@ -5924,7 +5960,7 @@
         <v>21.189</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>3</v>
       </c>
@@ -5944,7 +5980,7 @@
         <v>28.251999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>3</v>
       </c>
@@ -5964,7 +6000,7 @@
         <v>14.125999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>3</v>
       </c>
@@ -5984,7 +6020,7 @@
         <v>9.4169999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>3</v>
       </c>
@@ -6004,7 +6040,7 @@
         <v>14.125999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>3</v>
       </c>
@@ -6024,7 +6060,7 @@
         <v>47.087000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>3</v>
       </c>
@@ -6044,7 +6080,7 @@
         <v>11.772</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>3</v>
       </c>
@@ -6064,7 +6100,7 @@
         <v>28.251999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>3</v>
       </c>
@@ -6084,7 +6120,7 @@
         <v>23.542999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>3</v>
       </c>
@@ -6104,7 +6140,7 @@
         <v>9.4169999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>4</v>
       </c>
@@ -6124,7 +6160,7 @@
         <v>23.542999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>4</v>
       </c>
@@ -6144,7 +6180,7 @@
         <v>30.606999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>4</v>
       </c>
@@ -6164,7 +6200,7 @@
         <v>16.48</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>4</v>
       </c>
@@ -6184,7 +6220,7 @@
         <v>11.772</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>4</v>
       </c>
@@ -6204,7 +6240,7 @@
         <v>16.48</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>4</v>
       </c>
@@ -6224,7 +6260,7 @@
         <v>47.087000000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>4</v>
       </c>
@@ -6244,7 +6280,7 @@
         <v>14.125999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>4</v>
       </c>
@@ -6264,7 +6300,7 @@
         <v>30.606999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>4</v>
       </c>
@@ -6284,7 +6320,7 @@
         <v>21.189</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>4</v>
       </c>
@@ -6304,7 +6340,7 @@
         <v>11.772</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>5</v>
       </c>
@@ -6324,7 +6360,7 @@
         <v>23.542999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>5</v>
       </c>
@@ -6344,7 +6380,7 @@
         <v>30.606999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>5</v>
       </c>
@@ -6364,7 +6400,7 @@
         <v>16.48</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>5</v>
       </c>
@@ -6384,7 +6420,7 @@
         <v>14.125999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>5</v>
       </c>
@@ -6404,7 +6440,7 @@
         <v>16.48</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>5</v>
       </c>
@@ -6424,7 +6460,7 @@
         <v>47.087000000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>5</v>
       </c>
@@ -6444,7 +6480,7 @@
         <v>16.48</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>5</v>
       </c>
@@ -6464,7 +6500,7 @@
         <v>30.606999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>5</v>
       </c>
@@ -6484,7 +6520,7 @@
         <v>23.542999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>5</v>
       </c>
@@ -6518,75 +6554,75 @@
       <selection activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.453125" style="1"/>
-    <col min="2" max="2" width="3.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="1"/>
+    <col min="2" max="2" width="3.42578125" style="1" customWidth="1"/>
     <col min="3" max="12" width="8" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.453125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.1796875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="1" customWidth="1"/>
     <col min="15" max="24" width="8" style="1" customWidth="1"/>
-    <col min="25" max="25" width="4.453125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="6.7265625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="11.54296875" style="1" customWidth="1"/>
-    <col min="28" max="29" width="8.26953125" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="14.453125" style="1"/>
+    <col min="25" max="25" width="4.42578125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="6.7109375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="11.5703125" style="1" customWidth="1"/>
+    <col min="28" max="29" width="8.28515625" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A2" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="N2" s="80" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="N2" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
       <c r="Y2" s="23"/>
-      <c r="Z2" s="80" t="s">
+      <c r="Z2" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="C3" s="78" t="s">
+      <c r="AA2" s="89"/>
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="89"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="C3" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
       <c r="N3" s="24" t="s">
         <v>23</v>
       </c>
@@ -6601,7 +6637,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C4" s="19" t="s">
         <v>15</v>
       </c>
@@ -6639,11 +6675,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="79" t="s">
+    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="79"/>
+      <c r="B5" s="88"/>
       <c r="C5" s="3">
         <v>1</v>
       </c>
@@ -6714,7 +6750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -6810,7 +6846,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -6906,7 +6942,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -7002,7 +7038,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -7098,7 +7134,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -7194,7 +7230,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -7290,7 +7326,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
@@ -7311,35 +7347,35 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="D13" s="3"/>
       <c r="P13" s="3"/>
     </row>
-    <row r="14" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
-      <c r="N14" s="80" t="s">
+      <c r="N14" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="O14" s="80"/>
-      <c r="P14" s="80"/>
-      <c r="Q14" s="80"/>
-      <c r="R14" s="80"/>
-      <c r="S14" s="80"/>
-      <c r="T14" s="80"/>
-      <c r="U14" s="80"/>
-      <c r="V14" s="80"/>
-      <c r="W14" s="80"/>
-      <c r="X14" s="80"/>
-      <c r="Z14" s="80" t="s">
+      <c r="O14" s="89"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="89"/>
+      <c r="S14" s="89"/>
+      <c r="T14" s="89"/>
+      <c r="U14" s="89"/>
+      <c r="V14" s="89"/>
+      <c r="W14" s="89"/>
+      <c r="X14" s="89"/>
+      <c r="Z14" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="AA14" s="80"/>
-      <c r="AB14" s="80"/>
-      <c r="AC14" s="80"/>
+      <c r="AA14" s="89"/>
+      <c r="AB14" s="89"/>
+      <c r="AC14" s="89"/>
       <c r="AD14" s="23"/>
       <c r="AE14" s="23"/>
       <c r="AF14" s="23"/>
@@ -7349,19 +7385,19 @@
       <c r="AJ14" s="23"/>
       <c r="AK14" s="23"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="C15" s="78" t="s">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="C15" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
       <c r="N15" s="24" t="s">
         <v>23</v>
       </c>
@@ -7369,7 +7405,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C16" s="19" t="s">
         <v>15</v>
       </c>
@@ -7407,11 +7443,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A17" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="79"/>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A17" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="88"/>
       <c r="C17" s="3">
         <v>1</v>
       </c>
@@ -7482,7 +7518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
@@ -7554,7 +7590,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
@@ -7626,7 +7662,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
@@ -7698,7 +7734,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
@@ -7770,7 +7806,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -7842,7 +7878,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
@@ -7914,7 +7950,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="N24" s="2" t="s">
         <v>47</v>
       </c>
@@ -7940,7 +7976,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="N25" s="3"/>
       <c r="O25" s="74"/>
       <c r="P25" s="26"/>
@@ -7956,44 +7992,44 @@
       <c r="AB25" s="55"/>
       <c r="AC25" s="55"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
-      <c r="N26" s="80" t="s">
+      <c r="N26" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="O26" s="80"/>
-      <c r="P26" s="80"/>
-      <c r="Q26" s="80"/>
-      <c r="R26" s="80"/>
-      <c r="S26" s="80"/>
-      <c r="T26" s="80"/>
-      <c r="U26" s="80"/>
-      <c r="V26" s="80"/>
-      <c r="W26" s="80"/>
-      <c r="X26" s="80"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="C27" s="78" t="s">
+      <c r="O26" s="89"/>
+      <c r="P26" s="89"/>
+      <c r="Q26" s="89"/>
+      <c r="R26" s="89"/>
+      <c r="S26" s="89"/>
+      <c r="T26" s="89"/>
+      <c r="U26" s="89"/>
+      <c r="V26" s="89"/>
+      <c r="W26" s="89"/>
+      <c r="X26" s="89"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C27" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="87"/>
       <c r="N27" s="24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="19" t="s">
         <v>15</v>
       </c>
@@ -8028,11 +8064,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A29" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="79"/>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A29" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="88"/>
       <c r="C29" s="3">
         <v>1</v>
       </c>
@@ -8094,7 +8130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>1</v>
       </c>
@@ -8149,7 +8185,7 @@
         <v>14.125999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
@@ -8204,7 +8240,7 @@
         <v>16.48</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -8259,7 +8295,7 @@
         <v>18.835000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>4</v>
       </c>
@@ -8314,7 +8350,7 @@
         <v>9.4169999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>5</v>
       </c>
@@ -8369,7 +8405,7 @@
         <v>11.772</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>26</v>
       </c>
@@ -8424,7 +8460,7 @@
         <v>16.48</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="N36" s="75" t="s">
         <v>47</v>
       </c>
@@ -8433,10 +8469,10 @@
         <v>32.962000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P37" s="39"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P38" s="39"/>
     </row>
   </sheetData>
@@ -8466,24 +8502,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C3A7C0-0E85-4D64-B0EC-55A934C4FADB}">
   <dimension ref="A1:X38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" customWidth="1"/>
-    <col min="3" max="3" width="44.81640625" customWidth="1"/>
-    <col min="14" max="14" width="20.36328125" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="81"/>
-    </row>
-    <row r="2" spans="1:24" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="C1" s="78"/>
+    </row>
+    <row r="2" spans="1:24" ht="26.25" x14ac:dyDescent="0.25">
       <c r="D2" s="19" t="s">
         <v>15</v>
       </c>
@@ -8515,7 +8551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D3" s="3">
         <v>1</v>
       </c>
@@ -8547,12 +8583,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A4" s="79" t="s">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="81" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" s="78" t="s">
         <v>67</v>
       </c>
       <c r="D4" s="3"/>
@@ -8566,7 +8602,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -8617,7 +8653,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -8668,7 +8704,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -8719,7 +8755,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -8770,7 +8806,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -8821,7 +8857,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -8872,7 +8908,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>57</v>
       </c>
@@ -8886,36 +8922,8 @@
         <f>'incl 280speedup'!P12</f>
         <v>75</v>
       </c>
-      <c r="G11">
-        <f>'incl 280speedup'!R12</f>
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <f>'incl 280speedup'!S12</f>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f>'incl 280speedup'!T12</f>
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <f>'incl 280speedup'!U12</f>
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <f>'incl 280speedup'!V12</f>
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <f>'incl 280speedup'!W12</f>
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <f>'incl 280speedup'!X12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="26.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:24" ht="26.25" x14ac:dyDescent="0.25">
       <c r="O12" s="19" t="s">
         <v>15</v>
       </c>
@@ -8947,19 +8955,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A13" s="79" t="s">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="81" t="s">
+      <c r="B13" s="88"/>
+      <c r="C13" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="O13" s="88" t="s">
+      <c r="O13" s="85" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
@@ -8972,13 +8980,13 @@
       <c r="D14">
         <v>40</v>
       </c>
-      <c r="E14" s="82">
+      <c r="E14" s="79">
         <v>55</v>
       </c>
-      <c r="F14" s="82">
+      <c r="F14" s="79">
         <v>40</v>
       </c>
-      <c r="G14" s="83">
+      <c r="G14" s="80">
         <v>10</v>
       </c>
       <c r="H14">
@@ -8987,10 +8995,10 @@
       <c r="I14">
         <v>18</v>
       </c>
-      <c r="J14" s="83">
+      <c r="J14" s="80">
         <v>20</v>
       </c>
-      <c r="K14" s="82">
+      <c r="K14" s="79">
         <v>55</v>
       </c>
       <c r="L14">
@@ -9040,7 +9048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -9053,13 +9061,13 @@
       <c r="D15">
         <v>40</v>
       </c>
-      <c r="E15" s="82">
+      <c r="E15" s="79">
         <v>55</v>
       </c>
-      <c r="F15" s="82">
+      <c r="F15" s="79">
         <v>40</v>
       </c>
-      <c r="G15" s="83">
+      <c r="G15" s="80">
         <v>15</v>
       </c>
       <c r="H15">
@@ -9068,13 +9076,13 @@
       <c r="I15">
         <v>18</v>
       </c>
-      <c r="J15" s="83">
+      <c r="J15" s="80">
         <v>20</v>
       </c>
-      <c r="K15" s="82">
+      <c r="K15" s="79">
         <v>55</v>
       </c>
-      <c r="L15" s="89">
+      <c r="L15" s="86">
         <v>60</v>
       </c>
       <c r="M15">
@@ -9121,7 +9129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
@@ -9134,13 +9142,13 @@
       <c r="D16">
         <v>45</v>
       </c>
-      <c r="E16" s="82">
+      <c r="E16" s="79">
         <v>60</v>
       </c>
-      <c r="F16" s="82">
+      <c r="F16" s="79">
         <v>45</v>
       </c>
-      <c r="G16" s="83">
+      <c r="G16" s="80">
         <v>20</v>
       </c>
       <c r="H16">
@@ -9149,13 +9157,13 @@
       <c r="I16">
         <v>18</v>
       </c>
-      <c r="J16" s="83">
+      <c r="J16" s="80">
         <v>20</v>
       </c>
-      <c r="K16" s="82">
+      <c r="K16" s="79">
         <v>60</v>
       </c>
-      <c r="L16" s="89">
+      <c r="L16" s="86">
         <v>65</v>
       </c>
       <c r="M16">
@@ -9202,7 +9210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
@@ -9215,13 +9223,13 @@
       <c r="D17">
         <v>45</v>
       </c>
-      <c r="E17" s="82">
+      <c r="E17" s="79">
         <v>60</v>
       </c>
-      <c r="F17" s="82">
+      <c r="F17" s="79">
         <v>45</v>
       </c>
-      <c r="G17" s="86">
+      <c r="G17" s="83">
         <v>25</v>
       </c>
       <c r="H17">
@@ -9230,10 +9238,10 @@
       <c r="I17">
         <v>18</v>
       </c>
-      <c r="J17" s="86">
+      <c r="J17" s="83">
         <v>25</v>
       </c>
-      <c r="K17" s="82">
+      <c r="K17" s="79">
         <v>60</v>
       </c>
       <c r="L17">
@@ -9283,7 +9291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -9296,13 +9304,13 @@
       <c r="D18">
         <v>50</v>
       </c>
-      <c r="E18" s="82">
+      <c r="E18" s="79">
         <v>65</v>
       </c>
-      <c r="F18" s="82">
+      <c r="F18" s="79">
         <v>50</v>
       </c>
-      <c r="G18" s="84">
+      <c r="G18" s="81">
         <v>30</v>
       </c>
       <c r="H18">
@@ -9311,10 +9319,10 @@
       <c r="I18">
         <v>18</v>
       </c>
-      <c r="J18" s="84">
+      <c r="J18" s="81">
         <v>30</v>
       </c>
-      <c r="K18" s="82">
+      <c r="K18" s="79">
         <v>65</v>
       </c>
       <c r="L18">
@@ -9364,7 +9372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
@@ -9377,13 +9385,13 @@
       <c r="D19">
         <v>50</v>
       </c>
-      <c r="E19" s="82">
+      <c r="E19" s="79">
         <v>65</v>
       </c>
-      <c r="F19" s="82">
+      <c r="F19" s="79">
         <v>55</v>
       </c>
-      <c r="G19" s="85">
+      <c r="G19" s="82">
         <v>35</v>
       </c>
       <c r="H19">
@@ -9392,16 +9400,16 @@
       <c r="I19">
         <v>18</v>
       </c>
-      <c r="J19" s="85">
+      <c r="J19" s="82">
         <v>35</v>
       </c>
-      <c r="K19" s="82">
+      <c r="K19" s="79">
         <v>65</v>
       </c>
       <c r="L19">
         <v>50</v>
       </c>
-      <c r="M19" s="89">
+      <c r="M19" s="86">
         <v>30</v>
       </c>
       <c r="O19">
@@ -9445,7 +9453,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
@@ -9458,29 +9466,29 @@
       <c r="D20">
         <v>50</v>
       </c>
-      <c r="E20" s="82">
+      <c r="E20" s="79">
         <v>75</v>
       </c>
-      <c r="F20" s="82"/>
-      <c r="K20" s="82"/>
+      <c r="F20" s="79"/>
+      <c r="K20" s="79"/>
       <c r="P20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A22" s="79" t="s">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="79"/>
-      <c r="C22" s="81" t="s">
+      <c r="B22" s="88"/>
+      <c r="C22" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="O22" s="88" t="s">
+      <c r="O22" s="85" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
@@ -9493,13 +9501,13 @@
       <c r="D23">
         <v>40</v>
       </c>
-      <c r="E23" s="82">
+      <c r="E23" s="79">
         <v>55</v>
       </c>
-      <c r="F23" s="82">
+      <c r="F23" s="79">
         <v>40</v>
       </c>
-      <c r="G23" s="83">
+      <c r="G23" s="80">
         <v>10</v>
       </c>
       <c r="H23">
@@ -9508,10 +9516,10 @@
       <c r="I23">
         <v>18</v>
       </c>
-      <c r="J23" s="83">
+      <c r="J23" s="80">
         <v>20</v>
       </c>
-      <c r="K23" s="82">
+      <c r="K23" s="79">
         <v>55</v>
       </c>
       <c r="L23">
@@ -9561,7 +9569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
@@ -9574,13 +9582,13 @@
       <c r="D24">
         <v>40</v>
       </c>
-      <c r="E24" s="82">
+      <c r="E24" s="79">
         <v>55</v>
       </c>
-      <c r="F24" s="82">
+      <c r="F24" s="79">
         <v>40</v>
       </c>
-      <c r="G24" s="83">
+      <c r="G24" s="80">
         <v>15</v>
       </c>
       <c r="H24">
@@ -9589,20 +9597,20 @@
       <c r="I24">
         <v>18</v>
       </c>
-      <c r="J24" s="83">
+      <c r="J24" s="80">
         <v>20</v>
       </c>
-      <c r="K24" s="82">
+      <c r="K24" s="79">
         <v>55</v>
       </c>
-      <c r="L24" s="89">
+      <c r="L24" s="86">
         <v>55</v>
       </c>
       <c r="M24">
         <v>45</v>
       </c>
       <c r="O24">
-        <f t="shared" ref="O24:O29" si="2">D24-D6</f>
+        <f t="shared" ref="O24:O28" si="2">D24-D6</f>
         <v>0</v>
       </c>
       <c r="P24">
@@ -9642,7 +9650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
@@ -9655,13 +9663,13 @@
       <c r="D25">
         <v>45</v>
       </c>
-      <c r="E25" s="82">
+      <c r="E25" s="79">
         <v>55</v>
       </c>
-      <c r="F25" s="82">
+      <c r="F25" s="79">
         <v>45</v>
       </c>
-      <c r="G25" s="83">
+      <c r="G25" s="80">
         <v>20</v>
       </c>
       <c r="H25">
@@ -9670,13 +9678,13 @@
       <c r="I25">
         <v>18</v>
       </c>
-      <c r="J25" s="83">
+      <c r="J25" s="80">
         <v>20</v>
       </c>
-      <c r="K25" s="82">
+      <c r="K25" s="79">
         <v>55</v>
       </c>
-      <c r="L25" s="89">
+      <c r="L25" s="86">
         <v>55</v>
       </c>
       <c r="M25">
@@ -9723,7 +9731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
@@ -9736,13 +9744,13 @@
       <c r="D26">
         <v>45</v>
       </c>
-      <c r="E26" s="82">
+      <c r="E26" s="79">
         <v>55</v>
       </c>
-      <c r="F26" s="82">
+      <c r="F26" s="79">
         <v>45</v>
       </c>
-      <c r="G26" s="86">
+      <c r="G26" s="83">
         <v>25</v>
       </c>
       <c r="H26">
@@ -9751,10 +9759,10 @@
       <c r="I26">
         <v>18</v>
       </c>
-      <c r="J26" s="86">
+      <c r="J26" s="83">
         <v>25</v>
       </c>
-      <c r="K26" s="82">
+      <c r="K26" s="79">
         <v>55</v>
       </c>
       <c r="L26">
@@ -9804,7 +9812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>5</v>
       </c>
@@ -9817,13 +9825,13 @@
       <c r="D27">
         <v>50</v>
       </c>
-      <c r="E27" s="82">
+      <c r="E27" s="79">
         <v>55</v>
       </c>
-      <c r="F27" s="82">
+      <c r="F27" s="79">
         <v>50</v>
       </c>
-      <c r="G27" s="84">
+      <c r="G27" s="81">
         <v>30</v>
       </c>
       <c r="H27">
@@ -9832,10 +9840,10 @@
       <c r="I27">
         <v>18</v>
       </c>
-      <c r="J27" s="84">
+      <c r="J27" s="81">
         <v>30</v>
       </c>
-      <c r="K27" s="82">
+      <c r="K27" s="79">
         <v>55</v>
       </c>
       <c r="L27">
@@ -9885,7 +9893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -9898,13 +9906,13 @@
       <c r="D28">
         <v>50</v>
       </c>
-      <c r="E28" s="82">
+      <c r="E28" s="79">
         <v>55</v>
       </c>
-      <c r="F28" s="82">
+      <c r="F28" s="79">
         <v>55</v>
       </c>
-      <c r="G28" s="85">
+      <c r="G28" s="82">
         <v>35</v>
       </c>
       <c r="H28">
@@ -9913,16 +9921,16 @@
       <c r="I28">
         <v>18</v>
       </c>
-      <c r="J28" s="85">
+      <c r="J28" s="82">
         <v>35</v>
       </c>
-      <c r="K28" s="82">
+      <c r="K28" s="79">
         <v>55</v>
       </c>
       <c r="L28">
         <v>50</v>
       </c>
-      <c r="M28" s="89">
+      <c r="M28" s="86">
         <v>30</v>
       </c>
       <c r="O28">
@@ -9966,7 +9974,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>57</v>
       </c>
@@ -9979,30 +9987,30 @@
       <c r="D29">
         <v>50</v>
       </c>
-      <c r="E29" s="82">
+      <c r="E29" s="79">
         <v>55</v>
       </c>
-      <c r="F29" s="82"/>
-      <c r="K29" s="82"/>
+      <c r="F29" s="79"/>
+      <c r="K29" s="79"/>
       <c r="P29">
         <f t="shared" si="1"/>
         <v>-20</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="C31" s="81" t="s">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C31" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="O31" s="88" t="s">
+      <c r="O31" s="85" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="C32" s="81"/>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C32" s="78"/>
       <c r="J32" t="s">
         <v>60</v>
       </c>
@@ -10047,16 +10055,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:24" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>61</v>
       </c>
-      <c r="J33" s="82"/>
+      <c r="J33" s="79"/>
       <c r="K33" t="s">
         <v>73</v>
       </c>
       <c r="O33">
-        <f t="shared" ref="O33:O38" si="4">D24-D15</f>
+        <f t="shared" ref="O33:O37" si="4">D24-D15</f>
         <v>0</v>
       </c>
       <c r="P33">
@@ -10096,11 +10104,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:24" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>62</v>
       </c>
-      <c r="J34" s="83"/>
+      <c r="J34" s="80"/>
       <c r="K34" t="s">
         <v>72</v>
       </c>
@@ -10145,11 +10153,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:24" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>63</v>
       </c>
-      <c r="J35" s="86"/>
+      <c r="J35" s="83"/>
       <c r="K35" t="s">
         <v>72</v>
       </c>
@@ -10194,11 +10202,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:24" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>64</v>
       </c>
-      <c r="J36" s="84"/>
+      <c r="J36" s="81"/>
       <c r="K36" t="s">
         <v>72</v>
       </c>
@@ -10243,11 +10251,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:24" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>65</v>
       </c>
-      <c r="J37" s="85"/>
+      <c r="J37" s="82"/>
       <c r="K37" t="s">
         <v>72</v>
       </c>
@@ -10292,11 +10300,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:24" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>66</v>
       </c>
-      <c r="J38" s="87"/>
+      <c r="J38" s="84"/>
       <c r="P38">
         <f t="shared" si="3"/>
         <v>-20</v>
@@ -10313,16 +10321,4268 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P13:X13 O14:X20">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="notEqual">
+  <conditionalFormatting sqref="O32:X38">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O32:X38">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+  <conditionalFormatting sqref="P13:X13 O14:X20">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5EE528-76AC-4F9E-9DD9-3F819F16C5C3}">
+  <dimension ref="A1:G184"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G133" sqref="G133"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="33.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>65</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>40</v>
+      </c>
+      <c r="F15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>40</v>
+      </c>
+      <c r="F16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>45</v>
+      </c>
+      <c r="F18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>50</v>
+      </c>
+      <c r="F19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>55</v>
+      </c>
+      <c r="F20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>30</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>35</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>30</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>35</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>35</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>40</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>40</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>18</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>18</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>18</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>18</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>18</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>20</v>
+      </c>
+      <c r="F39" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40">
+        <v>25</v>
+      </c>
+      <c r="F40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <v>30</v>
+      </c>
+      <c r="F41" t="s">
+        <v>82</v>
+      </c>
+      <c r="G41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="E42">
+        <v>30</v>
+      </c>
+      <c r="F42" t="s">
+        <v>82</v>
+      </c>
+      <c r="G42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="E43">
+        <v>35</v>
+      </c>
+      <c r="F43" t="s">
+        <v>82</v>
+      </c>
+      <c r="G43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44">
+        <v>40</v>
+      </c>
+      <c r="F44" t="s">
+        <v>82</v>
+      </c>
+      <c r="G44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <v>55</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+      <c r="E46">
+        <v>55</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47">
+        <v>8</v>
+      </c>
+      <c r="E47">
+        <v>60</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+      <c r="E48">
+        <v>60</v>
+      </c>
+      <c r="F48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49">
+        <v>8</v>
+      </c>
+      <c r="E49">
+        <v>65</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50">
+        <v>8</v>
+      </c>
+      <c r="E50">
+        <v>65</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51">
+        <v>9</v>
+      </c>
+      <c r="E51">
+        <v>55</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52">
+        <v>9</v>
+      </c>
+      <c r="E52">
+        <v>60</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53">
+        <v>9</v>
+      </c>
+      <c r="E53">
+        <v>65</v>
+      </c>
+      <c r="F53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54">
+        <v>9</v>
+      </c>
+      <c r="E54">
+        <v>50</v>
+      </c>
+      <c r="F54" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55">
+        <v>9</v>
+      </c>
+      <c r="E55">
+        <v>45</v>
+      </c>
+      <c r="F55" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56">
+        <v>9</v>
+      </c>
+      <c r="E56">
+        <v>50</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57">
+        <v>10</v>
+      </c>
+      <c r="E57">
+        <v>40</v>
+      </c>
+      <c r="F57" t="s">
+        <v>81</v>
+      </c>
+      <c r="G57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58">
+        <v>10</v>
+      </c>
+      <c r="E58">
+        <v>45</v>
+      </c>
+      <c r="F58" t="s">
+        <v>81</v>
+      </c>
+      <c r="G58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59">
+        <v>10</v>
+      </c>
+      <c r="E59">
+        <v>55</v>
+      </c>
+      <c r="F59" t="s">
+        <v>81</v>
+      </c>
+      <c r="G59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60">
+        <v>10</v>
+      </c>
+      <c r="E60">
+        <v>25</v>
+      </c>
+      <c r="F60" t="s">
+        <v>81</v>
+      </c>
+      <c r="G60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+      <c r="E61">
+        <v>30</v>
+      </c>
+      <c r="F61" t="s">
+        <v>81</v>
+      </c>
+      <c r="G61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62">
+        <v>10</v>
+      </c>
+      <c r="E62">
+        <v>40</v>
+      </c>
+      <c r="F62" t="s">
+        <v>81</v>
+      </c>
+      <c r="G62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>51</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>40</v>
+      </c>
+      <c r="F63" t="s">
+        <v>80</v>
+      </c>
+      <c r="G63" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>52</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>40</v>
+      </c>
+      <c r="F64" t="s">
+        <v>80</v>
+      </c>
+      <c r="G64" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>53</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>45</v>
+      </c>
+      <c r="F65" t="s">
+        <v>80</v>
+      </c>
+      <c r="G65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>54</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>45</v>
+      </c>
+      <c r="F66" t="s">
+        <v>80</v>
+      </c>
+      <c r="G66" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>50</v>
+      </c>
+      <c r="F67" t="s">
+        <v>80</v>
+      </c>
+      <c r="G67" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>56</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>50</v>
+      </c>
+      <c r="F68" t="s">
+        <v>80</v>
+      </c>
+      <c r="G68" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69">
+        <v>6</v>
+      </c>
+      <c r="C69" t="s">
+        <v>58</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>50</v>
+      </c>
+      <c r="F69" t="s">
+        <v>80</v>
+      </c>
+      <c r="G69" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>55</v>
+      </c>
+      <c r="F70" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>55</v>
+      </c>
+      <c r="F71" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>53</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>60</v>
+      </c>
+      <c r="F72" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>54</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>60</v>
+      </c>
+      <c r="F73" t="s">
+        <v>7</v>
+      </c>
+      <c r="G73" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74">
+        <v>4</v>
+      </c>
+      <c r="C74" t="s">
+        <v>55</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>65</v>
+      </c>
+      <c r="F74" t="s">
+        <v>7</v>
+      </c>
+      <c r="G74" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>56</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>65</v>
+      </c>
+      <c r="F75" t="s">
+        <v>7</v>
+      </c>
+      <c r="G75" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>57</v>
+      </c>
+      <c r="B76">
+        <v>6</v>
+      </c>
+      <c r="C76" t="s">
+        <v>58</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>75</v>
+      </c>
+      <c r="F76" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>51</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>40</v>
+      </c>
+      <c r="F77" t="s">
+        <v>83</v>
+      </c>
+      <c r="G77" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>52</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78">
+        <v>40</v>
+      </c>
+      <c r="F78" t="s">
+        <v>83</v>
+      </c>
+      <c r="G78" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>53</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>45</v>
+      </c>
+      <c r="F79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G79" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>54</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="E80">
+        <v>45</v>
+      </c>
+      <c r="F80" t="s">
+        <v>83</v>
+      </c>
+      <c r="G80" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81">
+        <v>4</v>
+      </c>
+      <c r="C81" t="s">
+        <v>55</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+      <c r="E81">
+        <v>50</v>
+      </c>
+      <c r="F81" t="s">
+        <v>83</v>
+      </c>
+      <c r="G81" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>26</v>
+      </c>
+      <c r="B82">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>56</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82">
+        <v>55</v>
+      </c>
+      <c r="F82" t="s">
+        <v>83</v>
+      </c>
+      <c r="G82" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>51</v>
+      </c>
+      <c r="D83">
+        <v>4</v>
+      </c>
+      <c r="E83">
+        <v>10</v>
+      </c>
+      <c r="F83" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>52</v>
+      </c>
+      <c r="D84">
+        <v>4</v>
+      </c>
+      <c r="E84">
+        <v>15</v>
+      </c>
+      <c r="F84" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>53</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+      <c r="E85">
+        <v>20</v>
+      </c>
+      <c r="F85" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>54</v>
+      </c>
+      <c r="D86">
+        <v>4</v>
+      </c>
+      <c r="E86">
+        <v>25</v>
+      </c>
+      <c r="F86" t="s">
+        <v>8</v>
+      </c>
+      <c r="G86" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87">
+        <v>4</v>
+      </c>
+      <c r="C87" t="s">
+        <v>55</v>
+      </c>
+      <c r="D87">
+        <v>4</v>
+      </c>
+      <c r="E87">
+        <v>30</v>
+      </c>
+      <c r="F87" t="s">
+        <v>8</v>
+      </c>
+      <c r="G87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>26</v>
+      </c>
+      <c r="B88">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>56</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+      <c r="E88">
+        <v>35</v>
+      </c>
+      <c r="F88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G88" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89" t="s">
+        <v>51</v>
+      </c>
+      <c r="D89">
+        <v>5</v>
+      </c>
+      <c r="E89">
+        <v>30</v>
+      </c>
+      <c r="F89" t="s">
+        <v>9</v>
+      </c>
+      <c r="G89" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>52</v>
+      </c>
+      <c r="D90">
+        <v>5</v>
+      </c>
+      <c r="E90">
+        <v>30</v>
+      </c>
+      <c r="F90" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91" t="s">
+        <v>53</v>
+      </c>
+      <c r="D91">
+        <v>5</v>
+      </c>
+      <c r="E91">
+        <v>35</v>
+      </c>
+      <c r="F91" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>54</v>
+      </c>
+      <c r="D92">
+        <v>5</v>
+      </c>
+      <c r="E92">
+        <v>35</v>
+      </c>
+      <c r="F92" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93">
+        <v>4</v>
+      </c>
+      <c r="C93" t="s">
+        <v>55</v>
+      </c>
+      <c r="D93">
+        <v>5</v>
+      </c>
+      <c r="E93">
+        <v>40</v>
+      </c>
+      <c r="F93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G93" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>26</v>
+      </c>
+      <c r="B94">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>56</v>
+      </c>
+      <c r="D94">
+        <v>5</v>
+      </c>
+      <c r="E94">
+        <v>40</v>
+      </c>
+      <c r="F94" t="s">
+        <v>9</v>
+      </c>
+      <c r="G94" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95" t="s">
+        <v>51</v>
+      </c>
+      <c r="D95">
+        <v>6</v>
+      </c>
+      <c r="E95">
+        <v>18</v>
+      </c>
+      <c r="F95" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>52</v>
+      </c>
+      <c r="D96">
+        <v>6</v>
+      </c>
+      <c r="E96">
+        <v>18</v>
+      </c>
+      <c r="F96" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97" t="s">
+        <v>53</v>
+      </c>
+      <c r="D97">
+        <v>6</v>
+      </c>
+      <c r="E97">
+        <v>18</v>
+      </c>
+      <c r="F97" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>54</v>
+      </c>
+      <c r="D98">
+        <v>6</v>
+      </c>
+      <c r="E98">
+        <v>18</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99" t="s">
+        <v>55</v>
+      </c>
+      <c r="D99">
+        <v>6</v>
+      </c>
+      <c r="E99">
+        <v>18</v>
+      </c>
+      <c r="F99" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>26</v>
+      </c>
+      <c r="B100">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>56</v>
+      </c>
+      <c r="D100">
+        <v>6</v>
+      </c>
+      <c r="E100">
+        <v>18</v>
+      </c>
+      <c r="F100" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>51</v>
+      </c>
+      <c r="D101">
+        <v>7</v>
+      </c>
+      <c r="E101">
+        <v>20</v>
+      </c>
+      <c r="F101" t="s">
+        <v>82</v>
+      </c>
+      <c r="G101" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>52</v>
+      </c>
+      <c r="D102">
+        <v>7</v>
+      </c>
+      <c r="E102">
+        <v>20</v>
+      </c>
+      <c r="F102" t="s">
+        <v>82</v>
+      </c>
+      <c r="G102" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103" t="s">
+        <v>53</v>
+      </c>
+      <c r="D103">
+        <v>7</v>
+      </c>
+      <c r="E103">
+        <v>20</v>
+      </c>
+      <c r="F103" t="s">
+        <v>82</v>
+      </c>
+      <c r="G103" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>54</v>
+      </c>
+      <c r="D104">
+        <v>7</v>
+      </c>
+      <c r="E104">
+        <v>25</v>
+      </c>
+      <c r="F104" t="s">
+        <v>82</v>
+      </c>
+      <c r="G104" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105">
+        <v>4</v>
+      </c>
+      <c r="C105" t="s">
+        <v>55</v>
+      </c>
+      <c r="D105">
+        <v>7</v>
+      </c>
+      <c r="E105">
+        <v>30</v>
+      </c>
+      <c r="F105" t="s">
+        <v>82</v>
+      </c>
+      <c r="G105" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>26</v>
+      </c>
+      <c r="B106">
+        <v>5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>56</v>
+      </c>
+      <c r="D106">
+        <v>7</v>
+      </c>
+      <c r="E106">
+        <v>35</v>
+      </c>
+      <c r="F106" t="s">
+        <v>82</v>
+      </c>
+      <c r="G106" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107" t="s">
+        <v>51</v>
+      </c>
+      <c r="D107">
+        <v>8</v>
+      </c>
+      <c r="E107">
+        <v>55</v>
+      </c>
+      <c r="F107" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>52</v>
+      </c>
+      <c r="D108">
+        <v>8</v>
+      </c>
+      <c r="E108">
+        <v>55</v>
+      </c>
+      <c r="F108" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109" t="s">
+        <v>53</v>
+      </c>
+      <c r="D109">
+        <v>8</v>
+      </c>
+      <c r="E109">
+        <v>60</v>
+      </c>
+      <c r="F109" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110">
+        <v>3</v>
+      </c>
+      <c r="C110" t="s">
+        <v>54</v>
+      </c>
+      <c r="D110">
+        <v>8</v>
+      </c>
+      <c r="E110">
+        <v>60</v>
+      </c>
+      <c r="F110" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111">
+        <v>4</v>
+      </c>
+      <c r="C111" t="s">
+        <v>55</v>
+      </c>
+      <c r="D111">
+        <v>8</v>
+      </c>
+      <c r="E111">
+        <v>65</v>
+      </c>
+      <c r="F111" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>26</v>
+      </c>
+      <c r="B112">
+        <v>5</v>
+      </c>
+      <c r="C112" t="s">
+        <v>56</v>
+      </c>
+      <c r="D112">
+        <v>8</v>
+      </c>
+      <c r="E112">
+        <v>65</v>
+      </c>
+      <c r="F112" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>1</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113" t="s">
+        <v>51</v>
+      </c>
+      <c r="D113">
+        <v>9</v>
+      </c>
+      <c r="E113">
+        <v>55</v>
+      </c>
+      <c r="F113" t="s">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>52</v>
+      </c>
+      <c r="D114">
+        <v>9</v>
+      </c>
+      <c r="E114">
+        <v>60</v>
+      </c>
+      <c r="F114" t="s">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115" t="s">
+        <v>53</v>
+      </c>
+      <c r="D115">
+        <v>9</v>
+      </c>
+      <c r="E115">
+        <v>65</v>
+      </c>
+      <c r="F115" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116">
+        <v>3</v>
+      </c>
+      <c r="C116" t="s">
+        <v>54</v>
+      </c>
+      <c r="D116">
+        <v>9</v>
+      </c>
+      <c r="E116">
+        <v>50</v>
+      </c>
+      <c r="F116" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117">
+        <v>4</v>
+      </c>
+      <c r="C117" t="s">
+        <v>55</v>
+      </c>
+      <c r="D117">
+        <v>9</v>
+      </c>
+      <c r="E117">
+        <v>45</v>
+      </c>
+      <c r="F117" t="s">
+        <v>13</v>
+      </c>
+      <c r="G117" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>26</v>
+      </c>
+      <c r="B118">
+        <v>5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>56</v>
+      </c>
+      <c r="D118">
+        <v>9</v>
+      </c>
+      <c r="E118">
+        <v>50</v>
+      </c>
+      <c r="F118" t="s">
+        <v>13</v>
+      </c>
+      <c r="G118" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119" t="s">
+        <v>51</v>
+      </c>
+      <c r="D119">
+        <v>10</v>
+      </c>
+      <c r="E119">
+        <v>40</v>
+      </c>
+      <c r="F119" t="s">
+        <v>81</v>
+      </c>
+      <c r="G119" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>2</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120" t="s">
+        <v>52</v>
+      </c>
+      <c r="D120">
+        <v>10</v>
+      </c>
+      <c r="E120">
+        <v>45</v>
+      </c>
+      <c r="F120" t="s">
+        <v>81</v>
+      </c>
+      <c r="G120" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>3</v>
+      </c>
+      <c r="B121">
+        <v>2</v>
+      </c>
+      <c r="C121" t="s">
+        <v>53</v>
+      </c>
+      <c r="D121">
+        <v>10</v>
+      </c>
+      <c r="E121">
+        <v>55</v>
+      </c>
+      <c r="F121" t="s">
+        <v>81</v>
+      </c>
+      <c r="G121" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122">
+        <v>3</v>
+      </c>
+      <c r="C122" t="s">
+        <v>54</v>
+      </c>
+      <c r="D122">
+        <v>10</v>
+      </c>
+      <c r="E122">
+        <v>25</v>
+      </c>
+      <c r="F122" t="s">
+        <v>81</v>
+      </c>
+      <c r="G122" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123">
+        <v>4</v>
+      </c>
+      <c r="C123" t="s">
+        <v>55</v>
+      </c>
+      <c r="D123">
+        <v>10</v>
+      </c>
+      <c r="E123">
+        <v>30</v>
+      </c>
+      <c r="F123" t="s">
+        <v>81</v>
+      </c>
+      <c r="G123" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>26</v>
+      </c>
+      <c r="B124">
+        <v>5</v>
+      </c>
+      <c r="C124" t="s">
+        <v>56</v>
+      </c>
+      <c r="D124">
+        <v>10</v>
+      </c>
+      <c r="E124">
+        <v>30</v>
+      </c>
+      <c r="F124" t="s">
+        <v>81</v>
+      </c>
+      <c r="G124" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>1</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125" t="s">
+        <v>51</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>40</v>
+      </c>
+      <c r="F125" t="s">
+        <v>80</v>
+      </c>
+      <c r="G125" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>2</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
+        <v>52</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>40</v>
+      </c>
+      <c r="F126" t="s">
+        <v>80</v>
+      </c>
+      <c r="G126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>3</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127" t="s">
+        <v>53</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>45</v>
+      </c>
+      <c r="F127" t="s">
+        <v>80</v>
+      </c>
+      <c r="G127" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128">
+        <v>3</v>
+      </c>
+      <c r="C128" t="s">
+        <v>54</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>45</v>
+      </c>
+      <c r="F128" t="s">
+        <v>80</v>
+      </c>
+      <c r="G128" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129">
+        <v>4</v>
+      </c>
+      <c r="C129" t="s">
+        <v>55</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>50</v>
+      </c>
+      <c r="F129" t="s">
+        <v>80</v>
+      </c>
+      <c r="G129" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>26</v>
+      </c>
+      <c r="B130">
+        <v>5</v>
+      </c>
+      <c r="C130" t="s">
+        <v>56</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>50</v>
+      </c>
+      <c r="F130" t="s">
+        <v>80</v>
+      </c>
+      <c r="G130" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>1</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131" t="s">
+        <v>51</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+      <c r="E131">
+        <v>55</v>
+      </c>
+      <c r="F131" t="s">
+        <v>7</v>
+      </c>
+      <c r="G131" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132" t="s">
+        <v>52</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+      <c r="E132">
+        <v>55</v>
+      </c>
+      <c r="F132" t="s">
+        <v>7</v>
+      </c>
+      <c r="G132" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="C133" t="s">
+        <v>53</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133">
+        <v>55</v>
+      </c>
+      <c r="F133" t="s">
+        <v>7</v>
+      </c>
+      <c r="G133" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134">
+        <v>3</v>
+      </c>
+      <c r="C134" t="s">
+        <v>54</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+      <c r="E134">
+        <v>55</v>
+      </c>
+      <c r="F134" t="s">
+        <v>7</v>
+      </c>
+      <c r="G134" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135">
+        <v>4</v>
+      </c>
+      <c r="C135" t="s">
+        <v>55</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+      <c r="E135">
+        <v>55</v>
+      </c>
+      <c r="F135" t="s">
+        <v>7</v>
+      </c>
+      <c r="G135" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>26</v>
+      </c>
+      <c r="B136">
+        <v>5</v>
+      </c>
+      <c r="C136" t="s">
+        <v>56</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+      <c r="E136">
+        <v>55</v>
+      </c>
+      <c r="F136" t="s">
+        <v>7</v>
+      </c>
+      <c r="G136" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>1</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137" t="s">
+        <v>51</v>
+      </c>
+      <c r="D137">
+        <v>3</v>
+      </c>
+      <c r="E137">
+        <v>40</v>
+      </c>
+      <c r="F137" t="s">
+        <v>83</v>
+      </c>
+      <c r="G137" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>2</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138" t="s">
+        <v>52</v>
+      </c>
+      <c r="D138">
+        <v>3</v>
+      </c>
+      <c r="E138">
+        <v>40</v>
+      </c>
+      <c r="F138" t="s">
+        <v>83</v>
+      </c>
+      <c r="G138" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>3</v>
+      </c>
+      <c r="B139">
+        <v>2</v>
+      </c>
+      <c r="C139" t="s">
+        <v>53</v>
+      </c>
+      <c r="D139">
+        <v>3</v>
+      </c>
+      <c r="E139">
+        <v>45</v>
+      </c>
+      <c r="F139" t="s">
+        <v>83</v>
+      </c>
+      <c r="G139" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140">
+        <v>3</v>
+      </c>
+      <c r="C140" t="s">
+        <v>54</v>
+      </c>
+      <c r="D140">
+        <v>3</v>
+      </c>
+      <c r="E140">
+        <v>45</v>
+      </c>
+      <c r="F140" t="s">
+        <v>83</v>
+      </c>
+      <c r="G140" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B141">
+        <v>4</v>
+      </c>
+      <c r="C141" t="s">
+        <v>55</v>
+      </c>
+      <c r="D141">
+        <v>3</v>
+      </c>
+      <c r="E141">
+        <v>50</v>
+      </c>
+      <c r="F141" t="s">
+        <v>83</v>
+      </c>
+      <c r="G141" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>26</v>
+      </c>
+      <c r="B142">
+        <v>5</v>
+      </c>
+      <c r="C142" t="s">
+        <v>56</v>
+      </c>
+      <c r="D142">
+        <v>3</v>
+      </c>
+      <c r="E142">
+        <v>55</v>
+      </c>
+      <c r="F142" t="s">
+        <v>83</v>
+      </c>
+      <c r="G142" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>1</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143" t="s">
+        <v>51</v>
+      </c>
+      <c r="D143">
+        <v>4</v>
+      </c>
+      <c r="E143">
+        <v>10</v>
+      </c>
+      <c r="F143" t="s">
+        <v>8</v>
+      </c>
+      <c r="G143" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>2</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144" t="s">
+        <v>52</v>
+      </c>
+      <c r="D144">
+        <v>4</v>
+      </c>
+      <c r="E144">
+        <v>15</v>
+      </c>
+      <c r="F144" t="s">
+        <v>8</v>
+      </c>
+      <c r="G144" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>3</v>
+      </c>
+      <c r="B145">
+        <v>2</v>
+      </c>
+      <c r="C145" t="s">
+        <v>53</v>
+      </c>
+      <c r="D145">
+        <v>4</v>
+      </c>
+      <c r="E145">
+        <v>20</v>
+      </c>
+      <c r="F145" t="s">
+        <v>8</v>
+      </c>
+      <c r="G145" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146">
+        <v>3</v>
+      </c>
+      <c r="C146" t="s">
+        <v>54</v>
+      </c>
+      <c r="D146">
+        <v>4</v>
+      </c>
+      <c r="E146">
+        <v>25</v>
+      </c>
+      <c r="F146" t="s">
+        <v>8</v>
+      </c>
+      <c r="G146" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147">
+        <v>4</v>
+      </c>
+      <c r="C147" t="s">
+        <v>55</v>
+      </c>
+      <c r="D147">
+        <v>4</v>
+      </c>
+      <c r="E147">
+        <v>30</v>
+      </c>
+      <c r="F147" t="s">
+        <v>8</v>
+      </c>
+      <c r="G147" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>26</v>
+      </c>
+      <c r="B148">
+        <v>5</v>
+      </c>
+      <c r="C148" t="s">
+        <v>56</v>
+      </c>
+      <c r="D148">
+        <v>4</v>
+      </c>
+      <c r="E148">
+        <v>35</v>
+      </c>
+      <c r="F148" t="s">
+        <v>8</v>
+      </c>
+      <c r="G148" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>1</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149" t="s">
+        <v>51</v>
+      </c>
+      <c r="D149">
+        <v>5</v>
+      </c>
+      <c r="E149">
+        <v>30</v>
+      </c>
+      <c r="F149" t="s">
+        <v>9</v>
+      </c>
+      <c r="G149" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>2</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150" t="s">
+        <v>52</v>
+      </c>
+      <c r="D150">
+        <v>5</v>
+      </c>
+      <c r="E150">
+        <v>30</v>
+      </c>
+      <c r="F150" t="s">
+        <v>9</v>
+      </c>
+      <c r="G150" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>3</v>
+      </c>
+      <c r="B151">
+        <v>2</v>
+      </c>
+      <c r="C151" t="s">
+        <v>53</v>
+      </c>
+      <c r="D151">
+        <v>5</v>
+      </c>
+      <c r="E151">
+        <v>35</v>
+      </c>
+      <c r="F151" t="s">
+        <v>9</v>
+      </c>
+      <c r="G151" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152">
+        <v>3</v>
+      </c>
+      <c r="C152" t="s">
+        <v>54</v>
+      </c>
+      <c r="D152">
+        <v>5</v>
+      </c>
+      <c r="E152">
+        <v>35</v>
+      </c>
+      <c r="F152" t="s">
+        <v>9</v>
+      </c>
+      <c r="G152" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153">
+        <v>4</v>
+      </c>
+      <c r="C153" t="s">
+        <v>55</v>
+      </c>
+      <c r="D153">
+        <v>5</v>
+      </c>
+      <c r="E153">
+        <v>40</v>
+      </c>
+      <c r="F153" t="s">
+        <v>9</v>
+      </c>
+      <c r="G153" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>26</v>
+      </c>
+      <c r="B154">
+        <v>5</v>
+      </c>
+      <c r="C154" t="s">
+        <v>56</v>
+      </c>
+      <c r="D154">
+        <v>5</v>
+      </c>
+      <c r="E154">
+        <v>40</v>
+      </c>
+      <c r="F154" t="s">
+        <v>9</v>
+      </c>
+      <c r="G154" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>1</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155" t="s">
+        <v>51</v>
+      </c>
+      <c r="D155">
+        <v>6</v>
+      </c>
+      <c r="E155">
+        <v>18</v>
+      </c>
+      <c r="F155" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>2</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156" t="s">
+        <v>52</v>
+      </c>
+      <c r="D156">
+        <v>6</v>
+      </c>
+      <c r="E156">
+        <v>18</v>
+      </c>
+      <c r="F156" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>3</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157" t="s">
+        <v>53</v>
+      </c>
+      <c r="D157">
+        <v>6</v>
+      </c>
+      <c r="E157">
+        <v>18</v>
+      </c>
+      <c r="F157" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158">
+        <v>3</v>
+      </c>
+      <c r="C158" t="s">
+        <v>54</v>
+      </c>
+      <c r="D158">
+        <v>6</v>
+      </c>
+      <c r="E158">
+        <v>18</v>
+      </c>
+      <c r="F158" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159">
+        <v>4</v>
+      </c>
+      <c r="C159" t="s">
+        <v>55</v>
+      </c>
+      <c r="D159">
+        <v>6</v>
+      </c>
+      <c r="E159">
+        <v>18</v>
+      </c>
+      <c r="F159" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>26</v>
+      </c>
+      <c r="B160">
+        <v>5</v>
+      </c>
+      <c r="C160" t="s">
+        <v>56</v>
+      </c>
+      <c r="D160">
+        <v>6</v>
+      </c>
+      <c r="E160">
+        <v>18</v>
+      </c>
+      <c r="F160" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>1</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161" t="s">
+        <v>51</v>
+      </c>
+      <c r="D161">
+        <v>7</v>
+      </c>
+      <c r="E161">
+        <v>20</v>
+      </c>
+      <c r="F161" t="s">
+        <v>82</v>
+      </c>
+      <c r="G161" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>2</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162" t="s">
+        <v>52</v>
+      </c>
+      <c r="D162">
+        <v>7</v>
+      </c>
+      <c r="E162">
+        <v>20</v>
+      </c>
+      <c r="F162" t="s">
+        <v>82</v>
+      </c>
+      <c r="G162" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>3</v>
+      </c>
+      <c r="B163">
+        <v>2</v>
+      </c>
+      <c r="C163" t="s">
+        <v>53</v>
+      </c>
+      <c r="D163">
+        <v>7</v>
+      </c>
+      <c r="E163">
+        <v>20</v>
+      </c>
+      <c r="F163" t="s">
+        <v>82</v>
+      </c>
+      <c r="G163" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164">
+        <v>3</v>
+      </c>
+      <c r="C164" t="s">
+        <v>54</v>
+      </c>
+      <c r="D164">
+        <v>7</v>
+      </c>
+      <c r="E164">
+        <v>25</v>
+      </c>
+      <c r="F164" t="s">
+        <v>82</v>
+      </c>
+      <c r="G164" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165">
+        <v>4</v>
+      </c>
+      <c r="C165" t="s">
+        <v>55</v>
+      </c>
+      <c r="D165">
+        <v>7</v>
+      </c>
+      <c r="E165">
+        <v>30</v>
+      </c>
+      <c r="F165" t="s">
+        <v>82</v>
+      </c>
+      <c r="G165" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>26</v>
+      </c>
+      <c r="B166">
+        <v>5</v>
+      </c>
+      <c r="C166" t="s">
+        <v>56</v>
+      </c>
+      <c r="D166">
+        <v>7</v>
+      </c>
+      <c r="E166">
+        <v>35</v>
+      </c>
+      <c r="F166" t="s">
+        <v>82</v>
+      </c>
+      <c r="G166" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167" t="s">
+        <v>51</v>
+      </c>
+      <c r="D167">
+        <v>8</v>
+      </c>
+      <c r="E167">
+        <v>55</v>
+      </c>
+      <c r="F167" t="s">
+        <v>12</v>
+      </c>
+      <c r="G167" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>2</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168" t="s">
+        <v>52</v>
+      </c>
+      <c r="D168">
+        <v>8</v>
+      </c>
+      <c r="E168">
+        <v>55</v>
+      </c>
+      <c r="F168" t="s">
+        <v>12</v>
+      </c>
+      <c r="G168" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>3</v>
+      </c>
+      <c r="B169">
+        <v>2</v>
+      </c>
+      <c r="C169" t="s">
+        <v>53</v>
+      </c>
+      <c r="D169">
+        <v>8</v>
+      </c>
+      <c r="E169">
+        <v>55</v>
+      </c>
+      <c r="F169" t="s">
+        <v>12</v>
+      </c>
+      <c r="G169" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170">
+        <v>3</v>
+      </c>
+      <c r="C170" t="s">
+        <v>54</v>
+      </c>
+      <c r="D170">
+        <v>8</v>
+      </c>
+      <c r="E170">
+        <v>55</v>
+      </c>
+      <c r="F170" t="s">
+        <v>12</v>
+      </c>
+      <c r="G170" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B171">
+        <v>4</v>
+      </c>
+      <c r="C171" t="s">
+        <v>55</v>
+      </c>
+      <c r="D171">
+        <v>8</v>
+      </c>
+      <c r="E171">
+        <v>55</v>
+      </c>
+      <c r="F171" t="s">
+        <v>12</v>
+      </c>
+      <c r="G171" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>26</v>
+      </c>
+      <c r="B172">
+        <v>5</v>
+      </c>
+      <c r="C172" t="s">
+        <v>56</v>
+      </c>
+      <c r="D172">
+        <v>8</v>
+      </c>
+      <c r="E172">
+        <v>55</v>
+      </c>
+      <c r="F172" t="s">
+        <v>12</v>
+      </c>
+      <c r="G172" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>1</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173" t="s">
+        <v>51</v>
+      </c>
+      <c r="D173">
+        <v>9</v>
+      </c>
+      <c r="E173">
+        <v>55</v>
+      </c>
+      <c r="F173" t="s">
+        <v>13</v>
+      </c>
+      <c r="G173" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>2</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174" t="s">
+        <v>52</v>
+      </c>
+      <c r="D174">
+        <v>9</v>
+      </c>
+      <c r="E174">
+        <v>55</v>
+      </c>
+      <c r="F174" t="s">
+        <v>13</v>
+      </c>
+      <c r="G174" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>3</v>
+      </c>
+      <c r="B175">
+        <v>2</v>
+      </c>
+      <c r="C175" t="s">
+        <v>53</v>
+      </c>
+      <c r="D175">
+        <v>9</v>
+      </c>
+      <c r="E175">
+        <v>55</v>
+      </c>
+      <c r="F175" t="s">
+        <v>13</v>
+      </c>
+      <c r="G175" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176">
+        <v>3</v>
+      </c>
+      <c r="C176" t="s">
+        <v>54</v>
+      </c>
+      <c r="D176">
+        <v>9</v>
+      </c>
+      <c r="E176">
+        <v>50</v>
+      </c>
+      <c r="F176" t="s">
+        <v>13</v>
+      </c>
+      <c r="G176" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B177">
+        <v>4</v>
+      </c>
+      <c r="C177" t="s">
+        <v>55</v>
+      </c>
+      <c r="D177">
+        <v>9</v>
+      </c>
+      <c r="E177">
+        <v>45</v>
+      </c>
+      <c r="F177" t="s">
+        <v>13</v>
+      </c>
+      <c r="G177" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>26</v>
+      </c>
+      <c r="B178">
+        <v>5</v>
+      </c>
+      <c r="C178" t="s">
+        <v>56</v>
+      </c>
+      <c r="D178">
+        <v>9</v>
+      </c>
+      <c r="E178">
+        <v>50</v>
+      </c>
+      <c r="F178" t="s">
+        <v>13</v>
+      </c>
+      <c r="G178" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>1</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179" t="s">
+        <v>51</v>
+      </c>
+      <c r="D179">
+        <v>10</v>
+      </c>
+      <c r="E179">
+        <v>40</v>
+      </c>
+      <c r="F179" t="s">
+        <v>81</v>
+      </c>
+      <c r="G179" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>2</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180" t="s">
+        <v>52</v>
+      </c>
+      <c r="D180">
+        <v>10</v>
+      </c>
+      <c r="E180">
+        <v>45</v>
+      </c>
+      <c r="F180" t="s">
+        <v>81</v>
+      </c>
+      <c r="G180" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>3</v>
+      </c>
+      <c r="B181">
+        <v>2</v>
+      </c>
+      <c r="C181" t="s">
+        <v>53</v>
+      </c>
+      <c r="D181">
+        <v>10</v>
+      </c>
+      <c r="E181">
+        <v>55</v>
+      </c>
+      <c r="F181" t="s">
+        <v>81</v>
+      </c>
+      <c r="G181" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>4</v>
+      </c>
+      <c r="B182">
+        <v>3</v>
+      </c>
+      <c r="C182" t="s">
+        <v>54</v>
+      </c>
+      <c r="D182">
+        <v>10</v>
+      </c>
+      <c r="E182">
+        <v>25</v>
+      </c>
+      <c r="F182" t="s">
+        <v>81</v>
+      </c>
+      <c r="G182" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183">
+        <v>4</v>
+      </c>
+      <c r="C183" t="s">
+        <v>55</v>
+      </c>
+      <c r="D183">
+        <v>10</v>
+      </c>
+      <c r="E183">
+        <v>30</v>
+      </c>
+      <c r="F183" t="s">
+        <v>81</v>
+      </c>
+      <c r="G183" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>26</v>
+      </c>
+      <c r="B184">
+        <v>5</v>
+      </c>
+      <c r="C184" t="s">
+        <v>56</v>
+      </c>
+      <c r="D184">
+        <v>10</v>
+      </c>
+      <c r="E184">
+        <v>30</v>
+      </c>
+      <c r="F184" t="s">
+        <v>81</v>
+      </c>
+      <c r="G184" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>